--- a/coordenadas_polo.xlsx
+++ b/coordenadas_polo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoftware\PycharmProjects\csvtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoftware\PycharmProjects\supervision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0A14D5-AAF6-467F-A884-E325962DBDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E038684-6A85-4B85-A8A7-62DE994F1626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="3645" windowWidth="8400" windowHeight="13725" xr2:uid="{C736F524-7A3D-465B-8572-1E430F9EEC2A}"/>
+    <workbookView xWindow="600" yWindow="1110" windowWidth="13290" windowHeight="13725" xr2:uid="{C736F524-7A3D-465B-8572-1E430F9EEC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>Ñ</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>X1</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
@@ -460,41 +460,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9B2FF2-938D-4551-8FDF-259D3A57EC3D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C7:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>325.50799999999998</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>490.47</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>489.83100000000002</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>839.29899999999998</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>236.19900000000001</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1240.904</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>1396.683</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1563.549</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>1892.357</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>1426.499</v>
@@ -784,36 +784,36 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>855.35500000000002</v>
+        <v>718</v>
       </c>
       <c r="C12" s="1">
-        <v>160.27500000000001</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>780.54100000000005</v>
+        <v>798</v>
       </c>
       <c r="E12" s="1">
-        <v>9.7859999999999996</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1">
-        <v>671.50099999999998</v>
+        <v>858</v>
       </c>
       <c r="G12" s="1">
-        <v>39.146999999999998</v>
+        <v>176</v>
       </c>
       <c r="H12" s="1">
-        <v>746.31399999999996</v>
+        <v>762</v>
       </c>
       <c r="I12" s="1">
-        <v>209.208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>795.57</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>503.142</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>647.97299999999996</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>1441.152</v>
@@ -958,5 +958,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/coordenadas_polo.xlsx
+++ b/coordenadas_polo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoftware\PycharmProjects\supervision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E038684-6A85-4B85-A8A7-62DE994F1626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D966A699-056F-4D0C-BE65-0F7C06DFBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1110" windowWidth="13290" windowHeight="13725" xr2:uid="{C736F524-7A3D-465B-8572-1E430F9EEC2A}"/>
+    <workbookView xWindow="4320" yWindow="1770" windowWidth="23400" windowHeight="13725" xr2:uid="{C736F524-7A3D-465B-8572-1E430F9EEC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,9 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +468,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,58 +532,58 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>490.47</v>
+      <c r="B3">
+        <v>1240</v>
       </c>
       <c r="C3" s="1">
-        <v>493.529</v>
+        <v>484</v>
       </c>
       <c r="D3" s="1">
-        <v>138.602</v>
+        <v>1240</v>
       </c>
       <c r="E3" s="1">
-        <v>493.529</v>
+        <v>552</v>
       </c>
       <c r="F3" s="1">
-        <v>138.602</v>
+        <v>1612</v>
       </c>
       <c r="G3" s="1">
-        <v>578.71199999999999</v>
+        <v>552</v>
       </c>
       <c r="H3" s="1">
-        <v>490.47</v>
+        <v>1612</v>
       </c>
       <c r="I3" s="1">
-        <v>578.71199999999999</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>489.83100000000002</v>
+      <c r="B4">
+        <v>1344</v>
       </c>
       <c r="C4" s="1">
-        <v>588.55799999999999</v>
+        <v>596</v>
       </c>
       <c r="D4" s="1">
-        <v>137.96299999999999</v>
+        <v>1348</v>
       </c>
       <c r="E4" s="1">
-        <v>588.55799999999999</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1">
-        <v>137.96299999999999</v>
+        <v>1680</v>
       </c>
       <c r="G4" s="1">
-        <v>673.74199999999996</v>
+        <v>668</v>
       </c>
       <c r="H4" s="1">
-        <v>489.83100000000002</v>
+        <v>1680</v>
       </c>
       <c r="I4" s="1">
-        <v>673.74199999999996</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -613,28 +620,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>236.19900000000001</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1">
-        <v>838.548</v>
+        <v>774</v>
       </c>
       <c r="D6" s="1">
-        <v>163.43100000000001</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1">
-        <v>759.82</v>
+        <v>798</v>
       </c>
       <c r="F6" s="1">
-        <v>100.726</v>
+        <v>171</v>
       </c>
       <c r="G6" s="1">
-        <v>817.476</v>
+        <v>798</v>
       </c>
       <c r="H6" s="1">
-        <v>173.494</v>
+        <v>175</v>
       </c>
       <c r="I6" s="1">
-        <v>896.20399999999995</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -642,28 +649,28 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>1240.904</v>
+        <v>1014</v>
       </c>
       <c r="C7" s="1">
-        <v>897.21400000000006</v>
+        <v>857</v>
       </c>
       <c r="D7" s="1">
-        <v>1141.4190000000001</v>
+        <v>1178</v>
       </c>
       <c r="E7" s="1">
-        <v>808.40599999999995</v>
+        <v>857</v>
       </c>
       <c r="F7" s="1">
-        <v>1049.652</v>
+        <v>1262</v>
       </c>
       <c r="G7" s="1">
-        <v>902.06899999999996</v>
+        <v>945</v>
       </c>
       <c r="H7" s="1">
-        <v>1149.1369999999999</v>
+        <v>1102</v>
       </c>
       <c r="I7" s="1">
-        <v>990.87699999999995</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,57 +678,57 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>1396.683</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="1">
-        <v>862.26099999999997</v>
+        <v>856</v>
       </c>
       <c r="D8" s="1">
-        <v>1281.1210000000001</v>
+        <v>1364</v>
       </c>
       <c r="E8" s="1">
-        <v>752.12699999999995</v>
+        <v>852</v>
       </c>
       <c r="F8" s="1">
-        <v>1189.354</v>
+        <v>1440</v>
       </c>
       <c r="G8" s="1">
-        <v>845.79</v>
+        <v>932</v>
       </c>
       <c r="H8" s="1">
-        <v>1304.9159999999999</v>
+        <v>1308</v>
       </c>
       <c r="I8" s="1">
-        <v>955.92399999999998</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>1563.549</v>
+      <c r="B9">
+        <v>1479</v>
       </c>
       <c r="C9" s="1">
-        <v>959.48</v>
+        <v>862</v>
       </c>
       <c r="D9" s="1">
-        <v>1580.6769999999999</v>
+        <v>1483</v>
       </c>
       <c r="E9" s="1">
-        <v>815.35299999999995</v>
+        <v>990</v>
       </c>
       <c r="F9" s="1">
-        <v>1479.203</v>
+        <v>1559</v>
       </c>
       <c r="G9" s="1">
-        <v>811.77800000000002</v>
+        <v>986</v>
       </c>
       <c r="H9" s="1">
-        <v>1465.3330000000001</v>
+        <v>1547</v>
       </c>
       <c r="I9" s="1">
-        <v>961.48299999999995</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -815,29 +822,29 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
-        <v>795.57</v>
+      <c r="B13" s="2">
+        <v>656</v>
       </c>
       <c r="C13" s="1">
-        <v>351.53100000000001</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1">
-        <v>720.75699999999995</v>
+        <v>760</v>
       </c>
       <c r="E13" s="1">
-        <v>181.47</v>
+        <v>301</v>
       </c>
       <c r="F13" s="1">
-        <v>611.71600000000001</v>
+        <v>684</v>
       </c>
       <c r="G13" s="1">
-        <v>230.40299999999999</v>
+        <v>125</v>
       </c>
       <c r="H13" s="1">
-        <v>686.529</v>
+        <v>588</v>
       </c>
       <c r="I13" s="1">
-        <v>400.464</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -845,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>503.142</v>
+        <v>516</v>
       </c>
       <c r="C14" s="1">
-        <v>367.44099999999997</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1">
-        <v>572.01900000000001</v>
+        <v>540</v>
       </c>
       <c r="E14" s="1">
-        <v>293.49299999999999</v>
+        <v>312</v>
       </c>
       <c r="F14" s="1">
-        <v>515.76800000000003</v>
+        <v>596</v>
       </c>
       <c r="G14" s="1">
-        <v>244.22499999999999</v>
+        <v>204</v>
       </c>
       <c r="H14" s="1">
-        <v>453.09699999999998</v>
+        <v>552</v>
       </c>
       <c r="I14" s="1">
-        <v>318.17200000000003</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,28 +881,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>647.97299999999996</v>
+        <v>480</v>
       </c>
       <c r="C15" s="1">
-        <v>361.06599999999997</v>
+        <v>371</v>
       </c>
       <c r="D15" s="1">
-        <v>538.33299999999997</v>
+        <v>480</v>
       </c>
       <c r="E15" s="1">
-        <v>360.10700000000003</v>
+        <v>471</v>
       </c>
       <c r="F15" s="1">
-        <v>538.33299999999997</v>
+        <v>592</v>
       </c>
       <c r="G15" s="1">
-        <v>479.62400000000002</v>
+        <v>471</v>
       </c>
       <c r="H15" s="1">
-        <v>647.97299999999996</v>
+        <v>592</v>
       </c>
       <c r="I15" s="1">
-        <v>480.58300000000003</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -903,28 +910,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>1441.152</v>
+        <v>1280</v>
       </c>
       <c r="C16" s="1">
-        <v>669.51400000000001</v>
+        <v>758</v>
       </c>
       <c r="D16" s="1">
-        <v>1330.684</v>
+        <v>1276</v>
       </c>
       <c r="E16" s="1">
-        <v>669.78899999999999</v>
+        <v>678</v>
       </c>
       <c r="F16" s="1">
-        <v>1330.684</v>
+        <v>1448</v>
       </c>
       <c r="G16" s="1">
-        <v>774.35500000000002</v>
+        <v>678</v>
       </c>
       <c r="H16" s="1">
-        <v>1441.152</v>
+        <v>1448</v>
       </c>
       <c r="I16" s="1">
-        <v>774.07899999999995</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,28 +939,28 @@
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>1762.279</v>
+        <v>1731</v>
       </c>
       <c r="C17" s="1">
-        <v>213.86</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1">
-        <v>1653.278</v>
+        <v>1771</v>
       </c>
       <c r="E17" s="1">
-        <v>239.37</v>
+        <v>310</v>
       </c>
       <c r="F17" s="1">
-        <v>1682.8810000000001</v>
+        <v>1715</v>
       </c>
       <c r="G17" s="1">
-        <v>355.16199999999998</v>
+        <v>306</v>
       </c>
       <c r="H17" s="1">
-        <v>1791.8820000000001</v>
+        <v>1687</v>
       </c>
       <c r="I17" s="1">
-        <v>329.65300000000002</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
